--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value688.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value688.xlsx
@@ -354,7 +354,7 @@
         <v>2.874610359852848</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.5909033538744876</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value688.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value688.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.772237070826764</v>
+        <v>1.448696851730347</v>
       </c>
       <c r="B1">
-        <v>2.874610359852848</v>
+        <v>1.517573475837708</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.622479915618896</v>
       </c>
       <c r="D1">
-        <v>0.5909033538744876</v>
+        <v>2.282655000686646</v>
       </c>
       <c r="E1">
-        <v>0.2405515226435147</v>
+        <v>3.755235195159912</v>
       </c>
     </row>
   </sheetData>
